--- a/02. 项目计划和工时/Yaye Project Plan Phase I_2019-11-15.xlsx
+++ b/02. 项目计划和工时/Yaye Project Plan Phase I_2019-11-15.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulinux/OneDrive/NetSuite/projects/Implementation/Yaye/02. 项目计划和工时/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3B0023-EF97-1348-B3A8-B45062A452A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{EA3B0023-EF97-1348-B3A8-B45062A452A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7F78322D-9E6A-8347-85CA-D47D3C7A1DA9}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>可选：准备UAT测试脚本(涉及开发的流程）</t>
-  </si>
-  <si>
-    <t>Validate /系统验证</t>
   </si>
   <si>
     <t>打印表单调整</t>
@@ -828,6 +825,9 @@
   </si>
   <si>
     <t>商舟香港公司先上线</t>
+  </si>
+  <si>
+    <t>Validation /系统验证</t>
   </si>
 </sst>
 </file>
@@ -1195,9 +1195,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1208,6 +1205,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1517,8 +1517,8 @@
   <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="3" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131:XFD131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1537,18 +1537,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="10" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
       <c r="L1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1569,18 +1569,18 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
+      <c r="A2" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:17" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>1</v>
@@ -1995,10 +1995,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>1</v>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>1</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>1</v>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>1</v>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>1</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>1</v>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>1</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>1</v>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>1</v>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>1</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>1</v>
@@ -2259,10 +2259,10 @@
         <v>37</v>
       </c>
       <c r="B30" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>201</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>202</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>1</v>
@@ -2284,7 +2284,7 @@
       <c r="A31" s="34"/>
       <c r="B31" s="37"/>
       <c r="C31" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>1</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B32" s="37"/>
       <c r="C32" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>1</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D33" s="34" t="s">
         <v>1</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>1</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="34" t="s">
         <v>1</v>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>1</v>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>1</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>1</v>
@@ -2471,11 +2471,11 @@
     </row>
     <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="16" t="s">
         <v>1</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D40" s="34" t="s">
         <v>1</v>
@@ -2523,7 +2523,7 @@
       </c>
       <c r="B41" s="37"/>
       <c r="C41" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="34" t="s">
         <v>1</v>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D42" s="16" t="s">
         <v>1</v>
@@ -2570,10 +2570,10 @@
         <v>53</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="34" t="s">
         <v>1</v>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" s="34" t="s">
         <v>1</v>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D45" s="34" t="s">
         <v>1</v>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" s="34" t="s">
         <v>1</v>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D47" s="34" t="s">
         <v>1</v>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D48" s="34" t="s">
         <v>1</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D49" s="34" t="s">
         <v>1</v>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D50" s="34" t="s">
         <v>1</v>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D51" s="34" t="s">
         <v>1</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D52" s="34" t="s">
         <v>1</v>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="16" t="s">
         <v>1</v>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D54" s="34" t="s">
         <v>1</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D55" s="34" t="s">
         <v>1</v>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D56" s="34" t="s">
         <v>1</v>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B57" s="40"/>
       <c r="C57" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D57" s="16" t="s">
         <v>1</v>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="I57" s="16"/>
       <c r="J57" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -2934,10 +2934,10 @@
         <v>53</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D58" s="34" t="s">
         <v>1</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D59" s="34" t="s">
         <v>1</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D60" s="34" t="s">
         <v>1</v>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D61" s="34" t="s">
         <v>1</v>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D62" s="34" t="s">
         <v>1</v>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D63" s="34" t="s">
         <v>1</v>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D64" s="34" t="s">
         <v>1</v>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D65" s="34" t="s">
         <v>1</v>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D66" s="34" t="s">
         <v>1</v>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D67" s="34" t="s">
         <v>1</v>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="16" t="s">
         <v>1</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D69" s="34" t="s">
         <v>1</v>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D70" s="34" t="s">
         <v>1</v>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D71" s="34" t="s">
         <v>1</v>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B72" s="40"/>
       <c r="C72" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D72" s="16" t="s">
         <v>1</v>
@@ -3296,10 +3296,10 @@
         <v>53</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" s="34" t="s">
         <v>1</v>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D74" s="34" t="s">
         <v>1</v>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="34" t="s">
         <v>1</v>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D76" s="34" t="s">
         <v>1</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D77" s="34" t="s">
         <v>1</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D78" s="34" t="s">
         <v>1</v>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D79" s="34" t="s">
         <v>1</v>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D80" s="34" t="s">
         <v>1</v>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D81" s="34" t="s">
         <v>1</v>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D82" s="34" t="s">
         <v>1</v>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>1</v>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="34" t="s">
         <v>1</v>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D85" s="34" t="s">
         <v>1</v>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D86" s="34" t="s">
         <v>1</v>
@@ -3635,7 +3635,7 @@
       </c>
       <c r="B87" s="40"/>
       <c r="C87" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>1</v>
@@ -3661,7 +3661,7 @@
         <v>49</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>1</v>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B90" s="37"/>
       <c r="C90" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>1</v>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="B93" s="37"/>
       <c r="C93" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>1</v>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>1</v>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B97" s="37"/>
       <c r="C97" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>1</v>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B99" s="37"/>
       <c r="C99" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>1</v>
@@ -3970,10 +3970,10 @@
         <v>36</v>
       </c>
       <c r="B101" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>1</v>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B102" s="37"/>
       <c r="C102" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>1</v>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B103" s="37"/>
       <c r="C103" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>1</v>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="B104" s="37"/>
       <c r="C104" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>1</v>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="B105" s="37"/>
       <c r="C105" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>1</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="B106" s="37"/>
       <c r="C106" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>1</v>
@@ -4115,7 +4115,7 @@
       <c r="A107" s="14"/>
       <c r="B107" s="37"/>
       <c r="C107" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D107" s="16" t="s">
         <v>1</v>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="B108" s="37"/>
       <c r="C108" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>1</v>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="B109" s="37"/>
       <c r="C109" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>1</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B110" s="37"/>
       <c r="C110" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>1</v>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="I110" s="13"/>
       <c r="J110" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B111" s="37"/>
       <c r="C111" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>1</v>
@@ -4231,11 +4231,11 @@
     </row>
     <row r="112" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B112" s="37"/>
       <c r="C112" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>1</v>
@@ -4259,7 +4259,7 @@
       </c>
       <c r="B113" s="37"/>
       <c r="C113" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>1</v>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="B114" s="37"/>
       <c r="C114" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>1</v>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B115" s="37"/>
       <c r="C115" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>1</v>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B116" s="37"/>
       <c r="C116" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>1</v>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B117" s="37"/>
       <c r="C117" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>1</v>
@@ -4376,10 +4376,10 @@
         <v>53</v>
       </c>
       <c r="B118" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C118" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>1</v>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="B119" s="37"/>
       <c r="C119" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>1</v>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B120" s="37"/>
       <c r="C120" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>1</v>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B121" s="37"/>
       <c r="C121" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>1</v>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="B122" s="37"/>
       <c r="C122" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>1</v>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="B123" s="37"/>
       <c r="C123" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>1</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="B124" s="37"/>
       <c r="C124" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>1</v>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="B125" s="37"/>
       <c r="C125" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>1</v>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="B126" s="37"/>
       <c r="C126" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>1</v>
@@ -4595,7 +4595,7 @@
       </c>
       <c r="B127" s="37"/>
       <c r="C127" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>1</v>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="B128" s="37"/>
       <c r="C128" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D128" s="14" t="s">
         <v>1</v>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="B129" s="37"/>
       <c r="C129" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D129" s="14" t="s">
         <v>1</v>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="B130" s="37"/>
       <c r="C130" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>1</v>
@@ -4690,10 +4690,10 @@
         <v>66</v>
       </c>
       <c r="B131" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C131" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D131" s="14" t="s">
         <v>1</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D132" s="14" t="s">
         <v>1</v>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>1</v>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B134" s="39"/>
       <c r="C134" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D134" s="16" t="s">
         <v>1</v>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="I134" s="16"/>
       <c r="J134" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B135" s="39"/>
       <c r="C135" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D135" s="14" t="s">
         <v>1</v>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B136" s="39"/>
       <c r="C136" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D136" s="14" t="s">
         <v>1</v>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B137" s="39"/>
       <c r="C137" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D137" s="16" t="s">
         <v>1</v>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="I137" s="16"/>
       <c r="J137" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B138" s="39"/>
       <c r="C138" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D138" s="14" t="s">
         <v>1</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="B139" s="39"/>
       <c r="C139" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D139" s="14" t="s">
         <v>1</v>
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B140" s="39"/>
       <c r="C140" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D140" s="16" t="s">
         <v>1</v>
@@ -4930,7 +4930,7 @@
       </c>
       <c r="I140" s="16"/>
       <c r="J140" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="B141" s="40"/>
       <c r="C141" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D141" s="14" t="s">
         <v>1</v>
@@ -4961,11 +4961,11 @@
       <c r="A142" s="14">
         <v>77</v>
       </c>
-      <c r="B142" s="41" t="s">
+      <c r="B142" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C142" s="31" t="s">
         <v>105</v>
-      </c>
-      <c r="C142" s="31" t="s">
-        <v>106</v>
       </c>
       <c r="D142" s="32" t="s">
         <v>1</v>
@@ -4981,9 +4981,9 @@
       <c r="A143" s="14">
         <v>78</v>
       </c>
-      <c r="B143" s="41"/>
+      <c r="B143" s="45"/>
       <c r="C143" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D143" s="32" t="s">
         <v>1</v>
@@ -4997,29 +4997,29 @@
     </row>
     <row r="144" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B144" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C144" s="33" t="s">
         <v>108</v>
-      </c>
-      <c r="C144" s="33" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B88:B100"/>
+    <mergeCell ref="B101:B117"/>
+    <mergeCell ref="B118:B130"/>
+    <mergeCell ref="B131:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B18"/>
     <mergeCell ref="B19:B29"/>
     <mergeCell ref="B30:B42"/>
     <mergeCell ref="B43:B57"/>
     <mergeCell ref="B73:B87"/>
     <mergeCell ref="B58:B72"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="B88:B100"/>
-    <mergeCell ref="B101:B117"/>
-    <mergeCell ref="B118:B130"/>
-    <mergeCell ref="B131:B141"/>
-    <mergeCell ref="B142:B143"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5058,28 +5058,28 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -5087,25 +5087,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5114,25 +5114,25 @@
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5141,22 +5141,22 @@
       </c>
       <c r="B4" s="46"/>
       <c r="C4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12" x14ac:dyDescent="0.2">
@@ -5165,22 +5165,22 @@
       </c>
       <c r="B5" s="46"/>
       <c r="C5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>134</v>
-      </c>
       <c r="H5" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12" x14ac:dyDescent="0.2">
@@ -5188,25 +5188,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5215,22 +5215,22 @@
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -5238,25 +5238,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12" x14ac:dyDescent="0.2">
@@ -5265,25 +5265,25 @@
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5291,28 +5291,28 @@
         <v>10</v>
       </c>
       <c r="B10" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="G10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12" x14ac:dyDescent="0.2">
@@ -5321,44 +5321,44 @@
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="46"/>
       <c r="C12" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5367,22 +5367,22 @@
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5390,25 +5390,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5417,22 +5417,22 @@
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>167</v>
-      </c>
       <c r="E15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="G15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5441,22 +5441,22 @@
       </c>
       <c r="B16" s="46"/>
       <c r="C16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5464,25 +5464,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="G17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -5491,25 +5491,25 @@
       </c>
       <c r="B18" s="46"/>
       <c r="C18" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="G18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
